--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value812.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value812.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.846734134201053</v>
+        <v>1.102636098861694</v>
       </c>
       <c r="B1">
-        <v>3.272127683412536</v>
+        <v>1.960917592048645</v>
       </c>
       <c r="C1">
-        <v>2.17642107523337</v>
+        <v>4.397706508636475</v>
       </c>
       <c r="D1">
-        <v>1.901331813334574</v>
+        <v>0.2356551587581635</v>
       </c>
       <c r="E1">
-        <v>1.821918373190103</v>
+        <v>0.2710447609424591</v>
       </c>
     </row>
   </sheetData>
